--- a/Structure/En/BOM.xlsx
+++ b/Structure/En/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FINS实验室\FinsROV-An-Underwater-Camera-Based-Multi-Robot-Platform\Structure\zh-CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E3A8FE-2586-44D0-8AC1-663675A37C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93BE944-D205-48BC-83DE-19125A6AF103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{880EE660-C71F-4428-A3AE-46F35EABC731}"/>
   </bookViews>
@@ -406,7 +406,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无孔铝合金舱盖/半球罩+压板</t>
+    <t>无孔铝合金舱盖或者半球罩+压板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -854,7 +854,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -966,6 +966,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1019,15 +1022,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1353,7 +1347,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1389,7 +1383,7 @@
       <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="47" t="s">
         <v>88</v>
       </c>
       <c r="J1" s="12" t="s">
@@ -1403,7 +1397,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -1415,13 +1409,13 @@
       <c r="D2" s="15">
         <v>240</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="51" t="s">
         <v>43</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="42" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="43" t="s">
         <v>62</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1432,7 +1426,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1442,11 +1436,11 @@
       <c r="D3" s="2">
         <v>180</v>
       </c>
-      <c r="E3" s="51"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="42"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="43"/>
       <c r="K3" s="2" t="s">
         <v>64</v>
       </c>
@@ -1455,7 +1449,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1465,11 +1459,11 @@
       <c r="D4" s="2">
         <v>680</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="43"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="2" t="s">
         <v>65</v>
       </c>
@@ -1478,7 +1472,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1488,10 +1482,10 @@
       <c r="D5" s="2">
         <v>480</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="45" t="s">
         <v>66</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -1502,7 +1496,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1512,10 +1506,10 @@
       <c r="D6" s="2">
         <v>1140</v>
       </c>
-      <c r="E6" s="52"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
-      <c r="J6" s="42"/>
+      <c r="J6" s="43"/>
       <c r="K6" s="2" t="s">
         <v>68</v>
       </c>
@@ -1524,7 +1518,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="28" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="9" t="s">
         <v>45</v>
       </c>
@@ -1543,7 +1537,7 @@
       <c r="G7" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="J7" s="42"/>
+      <c r="J7" s="43"/>
       <c r="K7" s="2" t="s">
         <v>69</v>
       </c>
@@ -1552,8 +1546,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="47" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="48" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2">
@@ -1569,7 +1563,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="10"/>
-      <c r="J8" s="42"/>
+      <c r="J8" s="43"/>
       <c r="K8" s="2" t="s">
         <v>70</v>
       </c>
@@ -1578,8 +1572,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="49"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="2">
         <v>4</v>
       </c>
@@ -1591,7 +1585,7 @@
         <v>21</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="J9" s="42"/>
+      <c r="J9" s="43"/>
       <c r="K9" s="2" t="s">
         <v>71</v>
       </c>
@@ -1600,7 +1594,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
@@ -1608,16 +1602,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>515</v>
-      </c>
-      <c r="E10" s="58" t="s">
+        <v>370</v>
+      </c>
+      <c r="E10" s="56" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>106</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="J10" s="42"/>
+      <c r="J10" s="43"/>
       <c r="K10" s="2" t="s">
         <v>72</v>
       </c>
@@ -1626,27 +1620,27 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
-      <c r="B11" s="55" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="5">
         <v>150</v>
       </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="56" t="s">
+      <c r="E11" s="57"/>
+      <c r="F11" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="J11" s="42"/>
+      <c r="G11" s="37"/>
+      <c r="J11" s="43"/>
       <c r="K11" s="2"/>
       <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="5" t="s">
         <v>36</v>
       </c>
@@ -1657,7 +1651,7 @@
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="18"/>
-      <c r="J12" s="42"/>
+      <c r="J12" s="43"/>
       <c r="K12" s="2" t="s">
         <v>73</v>
       </c>
@@ -1666,7 +1660,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="28" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="41" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1687,7 +1681,7 @@
       <c r="G13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="43"/>
+      <c r="J13" s="44"/>
       <c r="K13" s="2" t="s">
         <v>74</v>
       </c>
@@ -1696,7 +1690,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="39" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1713,7 +1707,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="18"/>
-      <c r="J14" s="44" t="s">
+      <c r="J14" s="45" t="s">
         <v>75</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -1724,7 +1718,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="52" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1743,7 +1737,7 @@
       <c r="G15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="43"/>
+      <c r="J15" s="44"/>
       <c r="K15" s="2" t="s">
         <v>77</v>
       </c>
@@ -1752,7 +1746,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
@@ -1769,7 +1763,7 @@
         <v>49</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="J16" s="44" t="s">
+      <c r="J16" s="45" t="s">
         <v>78</v>
       </c>
       <c r="K16" s="2" t="s">
@@ -1780,7 +1774,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="28" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
@@ -1797,7 +1791,7 @@
         <v>28</v>
       </c>
       <c r="G17" s="10"/>
-      <c r="J17" s="42"/>
+      <c r="J17" s="43"/>
       <c r="K17" s="2" t="s">
         <v>80</v>
       </c>
@@ -1806,7 +1800,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1821,7 +1815,7 @@
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="10"/>
-      <c r="J18" s="43"/>
+      <c r="J18" s="44"/>
       <c r="K18" s="2" t="s">
         <v>81</v>
       </c>
@@ -1830,7 +1824,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="28" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="2" t="s">
         <v>53</v>
       </c>
@@ -1858,7 +1852,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="28" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
@@ -1886,7 +1880,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1901,7 +1895,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="10"/>
-      <c r="J21" s="44" t="s">
+      <c r="J21" s="45" t="s">
         <v>85</v>
       </c>
       <c r="K21" s="2" t="s">
@@ -1912,7 +1906,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="28" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
@@ -1924,7 +1918,7 @@
         <v>42</v>
       </c>
       <c r="G22" s="19"/>
-      <c r="J22" s="42"/>
+      <c r="J22" s="43"/>
       <c r="K22" s="2" t="s">
         <v>76</v>
       </c>
@@ -1933,7 +1927,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="41" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -1945,7 +1939,7 @@
         <v>102</v>
       </c>
       <c r="G23" s="19"/>
-      <c r="J23" s="45"/>
+      <c r="J23" s="46"/>
       <c r="K23" s="20" t="s">
         <v>87</v>
       </c>
@@ -1954,7 +1948,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="9" t="s">
         <v>61</v>
       </c>
@@ -1966,8 +1960,8 @@
       <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:12" ht="70" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="47" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="48" t="s">
         <v>90</v>
       </c>
       <c r="C25" s="5">
@@ -1976,7 +1970,7 @@
       <c r="D25" s="5">
         <v>25.2</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="39" t="s">
         <v>94</v>
       </c>
       <c r="F25" s="24" t="s">
@@ -1985,30 +1979,30 @@
       <c r="G25" s="19"/>
     </row>
     <row r="26" spans="1:12" ht="28" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="48"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="5">
         <v>2</v>
       </c>
       <c r="D26" s="5">
         <v>12.6</v>
       </c>
-      <c r="E26" s="39"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="24" t="s">
         <v>99</v>
       </c>
       <c r="G26" s="19"/>
     </row>
     <row r="27" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="48"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="5">
         <v>2</v>
       </c>
       <c r="D27" s="5">
         <v>36</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="39" t="s">
         <v>96</v>
       </c>
       <c r="F27" s="24" t="s">
@@ -2017,22 +2011,22 @@
       <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="5">
         <v>1</v>
       </c>
       <c r="D28" s="5">
         <v>24</v>
       </c>
-      <c r="E28" s="39"/>
+      <c r="E28" s="40"/>
       <c r="F28" s="24" t="s">
         <v>98</v>
       </c>
       <c r="G28" s="19"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="9" t="s">
         <v>91</v>
       </c>
@@ -2042,7 +2036,7 @@
       <c r="G29" s="19"/>
     </row>
     <row r="30" spans="1:12" ht="42" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="9" t="s">
         <v>92</v>
       </c>
@@ -2054,7 +2048,7 @@
       <c r="G30" s="19"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="9" t="s">
         <v>60</v>
       </c>
@@ -2066,7 +2060,7 @@
       <c r="G31" s="19"/>
     </row>
     <row r="32" spans="1:12" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="41"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="20" t="s">
         <v>35</v>
       </c>
@@ -2083,15 +2077,15 @@
       <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="16">
